--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>과목</t>
   </si>
@@ -30,6 +30,30 @@
   </si>
   <si>
     <t>중요도</t>
+  </si>
+  <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>�Է����ּ���.zzzzzzzz</t>
+  </si>
+  <si>
+    <t>����</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>�Է����ּ���.effdf</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -64,19 +88,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -100,6 +124,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>과목</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>ㅁㄴㅇ</t>
+  </si>
+  <si>
+    <t>진행</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -144,6 +150,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="66">
   <si>
     <t>과목</t>
   </si>
@@ -60,6 +60,156 @@
   </si>
   <si>
     <t>진행</t>
+  </si>
+  <si>
+    <t>�Է����ּ���a</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>1월1일</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>입력해주세요</t>
+  </si>
+  <si>
+    <t>2월2일</t>
+  </si>
+  <si>
+    <t>1월2일</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>월일</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>3월3일</t>
+  </si>
+  <si>
+    <t>2월4일</t>
+  </si>
+  <si>
+    <t>입력해주세요ddd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2월3일</t>
+  </si>
+  <si>
+    <t>입력해주세요adasd</t>
+  </si>
+  <si>
+    <t>입력해주세요z</t>
+  </si>
+  <si>
+    <t>입력해주세요zz</t>
+  </si>
+  <si>
+    <t>2월30일</t>
+  </si>
+  <si>
+    <t>3월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요b</t>
+  </si>
+  <si>
+    <t>2월26일</t>
+  </si>
+  <si>
+    <t>입력해주세요d</t>
+  </si>
+  <si>
+    <t>2월29일</t>
+  </si>
+  <si>
+    <t>입력해주세요s</t>
+  </si>
+  <si>
+    <t>한울</t>
+  </si>
+  <si>
+    <t>1월3일</t>
+  </si>
+  <si>
+    <t>4월4일</t>
+  </si>
+  <si>
+    <t>입력해주세요wss</t>
+  </si>
+  <si>
+    <t>5월6일</t>
+  </si>
+  <si>
+    <t>4월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요xxx</t>
+  </si>
+  <si>
+    <t>입력해주세요sz</t>
+  </si>
+  <si>
+    <t>2월5일</t>
+  </si>
+  <si>
+    <t>입력해주세요sss</t>
+  </si>
+  <si>
+    <t>입력해주세요aasd</t>
+  </si>
+  <si>
+    <t>5월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요dd</t>
+  </si>
+  <si>
+    <t>4월5일</t>
+  </si>
+  <si>
+    <t>4월3일</t>
+  </si>
+  <si>
+    <t>입력해주세요aa</t>
+  </si>
+  <si>
+    <t>3월4일</t>
+  </si>
+  <si>
+    <t>아아나암ㄴㅇ</t>
+  </si>
+  <si>
+    <t>5월4일</t>
+  </si>
+  <si>
+    <t>수정</t>
+  </si>
+  <si>
+    <t>3월5일</t>
+  </si>
+  <si>
+    <t>입력해주세요qq</t>
+  </si>
+  <si>
+    <t>7월31일</t>
+  </si>
+  <si>
+    <t>5월3일</t>
   </si>
 </sst>
 </file>
@@ -104,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -135,19 +285,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -155,19 +305,59 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="70">
   <si>
     <t>과목</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>5월3일</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴ</t>
   </si>
 </sst>
 </file>
@@ -254,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -345,19 +357,39 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="73">
   <si>
     <t>과목</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>zzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzzㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㅇㅁㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴ</t>
+  </si>
+  <si>
+    <t>입력해주세요x</t>
+  </si>
+  <si>
+    <t>월2일</t>
+  </si>
+  <si>
+    <t>2월7일</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -357,13 +366,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -390,6 +399,26 @@
       </c>
       <c r="F6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="81">
   <si>
     <t>과목</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>2월7일</t>
+  </si>
+  <si>
+    <t>입력해주세요qwe</t>
+  </si>
+  <si>
+    <t>11월27일</t>
+  </si>
+  <si>
+    <t>12월31일</t>
+  </si>
+  <si>
+    <t>입력해주세요e</t>
+  </si>
+  <si>
+    <t>8월31일</t>
+  </si>
+  <si>
+    <t>4월1일</t>
+  </si>
+  <si>
+    <t>입력해주세요sd</t>
+  </si>
+  <si>
+    <t>11월26일</t>
   </si>
 </sst>
 </file>
@@ -275,7 +299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -406,19 +430,59 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/운영체제.xlsx
+++ b/Subject_Dir/ToDolist_Dir/운영체제.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="84">
   <si>
     <t>과목</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>11월26일</t>
+  </si>
+  <si>
+    <t>입력해주세요ss</t>
+  </si>
+  <si>
+    <t>입력해주세요asd</t>
+  </si>
+  <si>
+    <t>입력해주세요ee</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -330,10 +339,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -342,7 +351,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -350,139 +359,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
